--- a/outputs/Ungeocodeable_Records.xlsx
+++ b/outputs/Ungeocodeable_Records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE1"/>
+  <dimension ref="A1:BF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,40 +587,45 @@
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
+          <t>UNIT_FULL</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
           <t>FULL_ADDRESS</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>LAST_JUNE_ELECTION_DATE</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>JUNE_PRIMARY_COUNT_ALL_TIME</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>JUNE_PRIMARY_COUNT_SINCE_2020</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>LIKELY_PRIMARY_VOTER_FLAG</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>LOYALTY_SCORE_6YR</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>LAT</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>LON</t>
         </is>
